--- a/02-output/wine_country_stats/Q2E_Peru_Statistics.xlsx
+++ b/02-output/wine_country_stats/Q2E_Peru_Statistics.xlsx
@@ -7,47 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Statistics_price" sheetId="1" r:id="rId1"/>
-    <sheet name="Statistics_points" sheetId="2" r:id="rId2"/>
+    <sheet name="Statistics" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>country</t>
+    <t>price_price</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>Peru</t>
+    <t>points_points</t>
   </si>
 </sst>
 </file>
@@ -405,166 +377,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="10" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>18.0625</v>
-      </c>
-      <c r="D2">
-        <v>14.5</v>
-      </c>
-      <c r="E2">
-        <v>13.66488809565108</v>
-      </c>
-      <c r="F2">
+      <c r="B4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="B5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>14</v>
       </c>
-      <c r="H2">
-        <v>14.5</v>
-      </c>
-      <c r="I2">
+      <c r="B10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>17</v>
       </c>
-      <c r="J2">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="10" width="4.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>83.5625</v>
-      </c>
-      <c r="D2">
+      <c r="B14">
         <v>84</v>
       </c>
-      <c r="E2">
-        <v>1.86077940659284</v>
-      </c>
-      <c r="F2">
-        <v>80</v>
-      </c>
-      <c r="G2">
-        <v>82</v>
-      </c>
-      <c r="H2">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>84</v>
       </c>
-      <c r="I2">
-        <v>85</v>
-      </c>
-      <c r="J2">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
         <v>86</v>
       </c>
     </row>
